--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1538846.05665143</v>
+        <v>1643025.691102502</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283178</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>79.76470074483056</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -719,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>41.96425921497125</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -820,10 +822,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>50.79485782344338</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -832,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>183.1353500206484</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>46.36893455027752</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>24.67503179724824</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1054,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>116.0016362324861</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1108,7 +1110,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1120,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>148.5873298926982</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>2.834206670629865</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>178.6791576837121</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,16 +1293,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>55.20079234900588</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1348,13 +1350,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>117.0270499201977</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444159</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>45.16086499485669</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1667,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174154</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1701,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128544</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>64.35711883683553</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856549</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012162</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>60.11729550773637</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1844,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710095</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,7 +2010,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>134.3852063573442</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>55.52079624061185</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2087,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>42.5313457611381</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2299,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>185.7495818221983</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2327,10 +2329,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>41.55695577161328</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>146.7151441592125</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2716,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2728,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>214.0647808588581</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>71.76895293959973</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2959,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>19.91555826188793</v>
       </c>
       <c r="S31" t="n">
-        <v>172.0260335000785</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>252.137643323831</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>59.96838802184633</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3240,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>170.9457618790573</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3266,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3317,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3427,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>3.006892987834117</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.839588425939267</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3481,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3506,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3667,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>65.44930784064577</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534142</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3791,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3901,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H43" t="n">
-        <v>0.8253826161909164</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3980,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4135,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>158.9570581017788</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4150,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>112.5284434523311</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1232.150970528558</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4367,13 +4369,13 @@
         <v>2424.744041450755</v>
       </c>
       <c r="W2" t="n">
-        <v>2382.355900829572</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X2" t="n">
-        <v>2008.890142568492</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="Y2" t="n">
-        <v>1618.75081059268</v>
+        <v>1698.509627919561</v>
       </c>
     </row>
     <row r="3">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>749.2621142610722</v>
+        <v>2342.011860380094</v>
       </c>
       <c r="C4" t="n">
-        <v>580.3259313331653</v>
+        <v>2173.075677452187</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>2022.959038039851</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>2022.959038039851</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>1876.069090541941</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218345</v>
+        <v>1708.36625391666</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218345</v>
+        <v>1562.149067134518</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>1464.823389952863</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>1713.933205348675</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>2030.493003797171</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>2374.65004939672</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>2716.058426102585</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022998</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456658</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>3235.7753643667</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.60866391532</v>
+        <v>3044.089480193526</v>
       </c>
       <c r="T4" t="n">
-        <v>1513.842048484846</v>
+        <v>2859.104278152467</v>
       </c>
       <c r="U4" t="n">
-        <v>1224.739181610489</v>
+        <v>2570.001411278111</v>
       </c>
       <c r="V4" t="n">
-        <v>970.0546934046023</v>
+        <v>2570.001411278111</v>
       </c>
       <c r="W4" t="n">
-        <v>970.0546934046023</v>
+        <v>2570.001411278111</v>
       </c>
       <c r="X4" t="n">
-        <v>970.0546934046023</v>
+        <v>2342.011860380094</v>
       </c>
       <c r="Y4" t="n">
-        <v>749.2621142610722</v>
+        <v>2342.011860380094</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1261.532988317206</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C5" t="n">
-        <v>892.5704713767946</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D5" t="n">
-        <v>892.5704713767946</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>481.584566587187</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218345</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794326</v>
+        <v>3094.703799450719</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450755</v>
+        <v>2763.640912107148</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180641</v>
+        <v>2763.640912107148</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919561</v>
+        <v>2763.640912107148</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943749</v>
+        <v>2373.501580131336</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228009</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
         <v>1212.42807043813</v>
@@ -4668,28 +4670,28 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>212.7293032143257</v>
+        <v>431.1278029579779</v>
       </c>
       <c r="C7" t="n">
-        <v>212.7293032143257</v>
+        <v>313.9544330261738</v>
       </c>
       <c r="D7" t="n">
-        <v>212.7293032143257</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E7" t="n">
-        <v>212.7293032143257</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143257</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218345</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4750,25 +4752,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672848</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
         <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368017</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621301</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251695</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="X7" t="n">
-        <v>362.8175152271522</v>
+        <v>651.920382101508</v>
       </c>
       <c r="Y7" t="n">
-        <v>212.7293032143257</v>
+        <v>431.1278029579779</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1959.379186075721</v>
+        <v>1979.067756754391</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4805,7 +4807,7 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4817,7 +4819,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4829,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W8" t="n">
-        <v>2513.328941997116</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="X8" t="n">
-        <v>2139.863183736036</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="Y8" t="n">
-        <v>1959.379186075721</v>
+        <v>2365.667596818513</v>
       </c>
     </row>
     <row r="9">
@@ -4936,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>607.0615673062264</v>
+        <v>663.8430895008161</v>
       </c>
       <c r="C10" t="n">
-        <v>607.0615673062264</v>
+        <v>608.0847133907091</v>
       </c>
       <c r="D10" t="n">
-        <v>456.9449278938906</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F10" t="n">
         <v>310.0549803959803</v>
@@ -4996,16 +4998,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1016.699583034483</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W10" t="n">
-        <v>1016.699583034483</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X10" t="n">
-        <v>788.7100321364661</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="Y10" t="n">
-        <v>788.7100321364661</v>
+        <v>845.4915543310558</v>
       </c>
     </row>
     <row r="11">
@@ -5015,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168634</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362708</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075811</v>
@@ -5060,31 +5062,31 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797193</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797193</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637309</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890283</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.11872044489</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684177</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2366.028450684177</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5206,43 +5208,43 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570825</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.08939327981</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853369</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580269</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832671</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487575</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510516</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854714</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648827</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611867</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611867</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>1144.284195611867</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5270,55 +5272,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068014</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756268</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468477</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468477</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>1174.7665653734</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>1802.364528928007</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>696.708435085169</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>631.7012443408906</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
         <v>631.7012443408906</v>
@@ -5431,55 +5433,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038347</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797751</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832665</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832665</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855606</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199804</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993917</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956956</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.149479058939</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>878.3568999154087</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,25 +5503,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5531,34 +5533,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615669</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334542</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.78353867329</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667835</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.01152569472</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740628</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385794</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385794</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>2381.235169913449</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>2715.15994208467</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>3210.485548300428</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M18" t="n">
-        <v>3210.485548300428</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N18" t="n">
-        <v>3482.038612289358</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>4033.948342528645</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>4457.571492023713</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398596</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398596</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301209</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.415660022983</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566168</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334425</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606223</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400691</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635737</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.6725264685181</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406112</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282754</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458823</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797193</v>
+        <v>229.5592957321579</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797193</v>
+        <v>229.5592957321579</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910816</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570825</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.08939327981</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853369</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580268</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2390.881471216014</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987578</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,37 +5734,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5832,22 +5834,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913855</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>738.7889117913855</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1366.386875345992</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>615.644930552589</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1246.075525424376</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>1018.085974526359</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>797.2933953828287</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5977,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5987,22 +5989,22 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>2716.927329289434</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>3212.252935505192</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>3809.631423131744</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>4437.229386686351</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>4437.229386686351</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>4437.229386686351</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2965.647484649469</v>
+        <v>3007.624207651098</v>
       </c>
       <c r="C25" t="n">
-        <v>2796.711301721562</v>
+        <v>2838.688024723192</v>
       </c>
       <c r="D25" t="n">
-        <v>2646.594662309226</v>
+        <v>2688.571385310856</v>
       </c>
       <c r="E25" t="n">
-        <v>2646.594662309226</v>
+        <v>2688.571385310856</v>
       </c>
       <c r="F25" t="n">
-        <v>2646.594662309226</v>
+        <v>2688.571385310856</v>
       </c>
       <c r="G25" t="n">
-        <v>2479.398563024106</v>
+        <v>2521.375286025736</v>
       </c>
       <c r="H25" t="n">
-        <v>2337.686731866304</v>
+        <v>2379.663454867934</v>
       </c>
       <c r="I25" t="n">
         <v>2337.686731866304</v>
@@ -6172,25 +6174,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S25" t="n">
-        <v>4507.978318053498</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="T25" t="n">
-        <v>4288.376853076439</v>
+        <v>4471.231687421535</v>
       </c>
       <c r="U25" t="n">
-        <v>4140.179737764103</v>
+        <v>4182.156460765733</v>
       </c>
       <c r="V25" t="n">
-        <v>3885.495249558217</v>
+        <v>3927.471972559846</v>
       </c>
       <c r="W25" t="n">
-        <v>3596.078079521256</v>
+        <v>3638.054802522885</v>
       </c>
       <c r="X25" t="n">
-        <v>3368.088528623239</v>
+        <v>3410.065251624868</v>
       </c>
       <c r="Y25" t="n">
-        <v>3147.295949479709</v>
+        <v>3189.272672481338</v>
       </c>
     </row>
     <row r="26">
@@ -6209,52 +6211,52 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466572</v>
@@ -6297,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2906.022356843752</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>2737.086173915845</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>2586.96953450351</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>2586.96953450351</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>2586.96953450351</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>2419.77343521839</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.932614305899</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.33114932884</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673038</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467151</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>3388.154264430191</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>3160.164713532174</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>3087.670821673992</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6443,46 +6445,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6497,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>2804.652647788939</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>2635.716464861032</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>2485.599825448697</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296627</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>4670.716426881534</v>
       </c>
       <c r="S31" t="n">
-        <v>2273.199413378161</v>
+        <v>4487.861592536438</v>
       </c>
       <c r="T31" t="n">
-        <v>2273.199413378161</v>
+        <v>4268.26012755938</v>
       </c>
       <c r="U31" t="n">
-        <v>2273.199413378161</v>
+        <v>3979.184900903577</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>3724.500412697687</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>3435.083242660727</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>3207.093691762709</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>2986.301112619179</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6707,10 +6709,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6777,19 +6779,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2878.798005073648</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>2878.798005073648</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>2728.681365661313</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>2728.681365661313</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430192</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532175</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>2939.372134388645</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6929,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
@@ -6950,19 +6952,19 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7020,16 +7022,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1018.438627038651</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>849.5024441107445</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>699.3858046984087</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E37" t="n">
-        <v>551.4727111160156</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>404.5827636181052</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>237.3866643329852</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>95.67483317518324</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7120,25 +7122,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1938.286391947399</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1648.869221910438</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1420.879671012421</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>1200.087091868891</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,16 +7162,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7199,25 +7201,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>409.1360811687896</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L39" t="n">
-        <v>904.4616873845483</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>1501.8401750111</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>803.8641191832228</v>
+        <v>2804.65264778894</v>
       </c>
       <c r="C40" t="n">
-        <v>634.9279362553159</v>
+        <v>2635.716464861033</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>2485.599825448698</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R40" t="n">
-        <v>2380.852671620012</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.997837274916</v>
+        <v>4487.861592536436</v>
       </c>
       <c r="T40" t="n">
-        <v>1978.396372297858</v>
+        <v>4268.260127559377</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.396372297858</v>
+        <v>3979.184900903575</v>
       </c>
       <c r="V40" t="n">
-        <v>1723.711884091971</v>
+        <v>3724.500412697688</v>
       </c>
       <c r="W40" t="n">
-        <v>1434.29471405501</v>
+        <v>3435.083242660728</v>
       </c>
       <c r="X40" t="n">
-        <v>1206.305163156993</v>
+        <v>3207.09369176271</v>
       </c>
       <c r="Y40" t="n">
-        <v>985.5125840134625</v>
+        <v>2986.30111261918</v>
       </c>
     </row>
     <row r="41">
@@ -7397,16 +7399,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7418,10 +7420,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,13 +7432,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>2231.58852738579</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>2231.58852738579</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>2231.58852738579</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>2817.800993781636</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N42" t="n">
-        <v>3445.398957336243</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O42" t="n">
-        <v>3997.30868757553</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P42" t="n">
-        <v>4420.931837070598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>94.65038286230612</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7722,16 +7724,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>716.6687843969308</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M45" t="n">
         <v>716.6687843969308</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>869.6905094135296</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C46" t="n">
-        <v>700.7543264856228</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D46" t="n">
-        <v>550.637687073287</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2333.297989183966</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>2044.222762528164</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1789.538274322277</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1500.121104285317</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1272.131553387299</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>1051.338974243769</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
   </sheetData>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>134.6711151870806</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>102.8897022617923</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23698,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>226.4057028288546</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>5.909506488879686</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>10.85445046950979</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24127,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>138.4949402405065</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>100.7734165143927</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>39.70888054695225</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24414,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>139.4693302300316</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24455,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24604,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>72.11969353038609</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>146.8157004124951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24847,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>46.45968844823376</v>
       </c>
       <c r="S31" t="n">
-        <v>9.000252501566052</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>119.863592160091</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>145.6085800303782</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>79.42624789262626</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25394,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25555,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.9259388694759139</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>46.45968844823039</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H43" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>8.289762996848992</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,10 +26073,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>104.8770068749571</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>913514.9942559212</v>
+        <v>913514.9942559213</v>
       </c>
     </row>
     <row r="4">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>898230.3070642164</v>
+        <v>898230.3070642161</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>898230.3070642164</v>
+        <v>898230.3070642162</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>898230.3070642164</v>
+        <v>898230.3070642162</v>
       </c>
     </row>
     <row r="15">
@@ -26317,13 +26319,13 @@
         <v>533677.1504117843</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="F2" t="n">
-        <v>524645.2897985042</v>
+        <v>524645.289798504</v>
       </c>
       <c r="G2" t="n">
         <v>524645.2897985041</v>
@@ -26332,25 +26334,25 @@
         <v>524645.289798504</v>
       </c>
       <c r="I2" t="n">
+        <v>524645.2897985041</v>
+      </c>
+      <c r="J2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="J2" t="n">
-        <v>524645.2897985039</v>
-      </c>
       <c r="K2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="L2" t="n">
         <v>524645.2897985041</v>
       </c>
       <c r="M2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="N2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="O2" t="n">
-        <v>524645.2897985042</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="P2" t="n">
         <v>524645.2897985039</v>
@@ -26372,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
-        <v>3.594527697714511e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314471</v>
+        <v>90354.06702314474</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314471</v>
+        <v>90354.06702314476</v>
       </c>
       <c r="D4" t="n">
         <v>90354.06702314477</v>
@@ -26427,13 +26429,13 @@
         <v>11167.03225179352</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
         <v>11167.03225179351</v>
@@ -26454,7 +26456,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="P4" t="n">
         <v>11167.03225179351</v>
@@ -26476,13 +26478,13 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26522,43 +26524,43 @@
         <v>-993355.6029003467</v>
       </c>
       <c r="C6" t="n">
-        <v>335389.1428272463</v>
+        <v>335389.1428272465</v>
       </c>
       <c r="D6" t="n">
-        <v>335389.1428272466</v>
+        <v>335389.1428272462</v>
       </c>
       <c r="E6" t="n">
-        <v>86943.26591544773</v>
+        <v>86943.26591544788</v>
       </c>
       <c r="F6" t="n">
+        <v>412355.7277228035</v>
+      </c>
+      <c r="G6" t="n">
+        <v>412355.7277228034</v>
+      </c>
+      <c r="H6" t="n">
+        <v>412355.7277228033</v>
+      </c>
+      <c r="I6" t="n">
+        <v>412355.7277228034</v>
+      </c>
+      <c r="J6" t="n">
+        <v>194824.5253255257</v>
+      </c>
+      <c r="K6" t="n">
+        <v>412355.7277228035</v>
+      </c>
+      <c r="L6" t="n">
+        <v>412355.7277228034</v>
+      </c>
+      <c r="M6" t="n">
+        <v>327300.6997872913</v>
+      </c>
+      <c r="N6" t="n">
+        <v>412355.7277228033</v>
+      </c>
+      <c r="O6" t="n">
         <v>412355.7277228032</v>
-      </c>
-      <c r="G6" t="n">
-        <v>412355.7277228038</v>
-      </c>
-      <c r="H6" t="n">
-        <v>412355.7277228035</v>
-      </c>
-      <c r="I6" t="n">
-        <v>412355.7277228037</v>
-      </c>
-      <c r="J6" t="n">
-        <v>194824.5253255258</v>
-      </c>
-      <c r="K6" t="n">
-        <v>412355.7277228032</v>
-      </c>
-      <c r="L6" t="n">
-        <v>412355.7277228035</v>
-      </c>
-      <c r="M6" t="n">
-        <v>327300.6997872915</v>
-      </c>
-      <c r="N6" t="n">
-        <v>412355.7277228034</v>
-      </c>
-      <c r="O6" t="n">
-        <v>412355.7277228036</v>
       </c>
       <c r="P6" t="n">
         <v>412355.7277228032</v>
@@ -26738,7 +26740,7 @@
         <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26747,7 +26749,7 @@
         <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341675</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26790,7 +26792,7 @@
         <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26799,10 +26801,10 @@
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26966,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>274.9183408758524</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27439,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>307.2767095024417</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,10 +27542,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>97.82061519476898</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>36.41359925552081</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>336.3649071132031</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>226.3201401616537</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,10 +27776,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>51.24518486614176</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,10 +27791,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,7 +27830,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>69.99732345939657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>362.4386851003777</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27913,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>207.5587809723415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28013,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>112.046028749622</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28068,13 +28070,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>135.1105934036303</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28105,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.713689494953669e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28281,7 +28283,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>7.164165557090503e-12</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -28564,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.301146286410376e-12</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28752,7 +28754,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>6.598573539425463e-12</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -29560,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29727,7 +29729,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>-1.536062028719379e-12</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -31276,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31750,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,34 +31840,34 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>416.4300581532619</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>328.903832042181</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348437</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135344</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.544175081758</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175681</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159432</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460034</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236513</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669226</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043728</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.0736191065153</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420757</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422589</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862126</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N15" t="n">
-        <v>765.279049007179</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>472.9736279168682</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214701</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742442</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937735</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275956</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189905</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121572</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869279</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796263</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.602080235518</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588156</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392048</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.676771792006</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515929</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532769</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467223</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>616.5397119226058</v>
       </c>
       <c r="M18" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>405.637736314575</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O21" t="n">
-        <v>677.7372574190219</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32801,16 +32803,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>359.1374415194858</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32941,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33023,10 +33025,10 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33041,7 +33043,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33263,10 +33265,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,10 +33277,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33497,10 +33499,10 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33740,19 +33742,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>514.8598010172138</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33913,10 +33915,10 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33974,7 +33976,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>305.187676947251</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,10 +33988,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34138,7 +34140,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34208,16 +34210,16 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34226,13 +34228,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34366,7 +34368,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34442,19 +34444,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>277.4567226539314</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>188.9220579561594</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899147</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317398</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396423</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367775</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462694</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902954</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243166</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683818</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924731</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.158224775409</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678999</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641942</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238457</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>330.3773834724238</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071399</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.0464832629535</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096352</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191317</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899077</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060457</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>274.2960242312417</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010518</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O21" t="n">
-        <v>535.1410129745775</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36449,16 +36451,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>219.1556674334643</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36671,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36689,7 +36691,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36911,10 +36913,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,10 +36925,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37084,7 +37086,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37145,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37388,19 +37390,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>376.3054212373396</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37561,10 +37563,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37624,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>167.346237972892</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,10 +37636,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37856,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37874,13 +37876,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38090,19 +38092,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>138.9023428740572</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1643025.691102502</v>
+        <v>1639013.081088508</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>79.76470074483056</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>318.407017942995</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -825,7 +825,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>75.32192060851571</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>183.1353500206484</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>282.8791992932306</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>24.67503179724824</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>116.0016362324861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>71.98153210089519</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>282.6988068886412</v>
       </c>
       <c r="C8" t="n">
-        <v>2.834206670629865</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1186,13 +1186,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1293,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>55.20079234900588</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>54.26003672910142</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>121.2558461704858</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.026033500079</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1767,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>24.83266606353065</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>60.11729550773637</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2010,16 +2010,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>134.3852063573442</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>205.6779548755971</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2250,13 +2250,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2289,19 +2289,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>194.0641876011614</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>185.7495818221983</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2481,10 +2481,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>41.55695577161328</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>154.0370966050008</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>56.04917322725558</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>214.0647808588581</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2961,13 +2961,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>145.6718493954791</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>19.91555826188793</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,13 +3009,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323831</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>170.9457618790573</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>83.87284639171752</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>3.006892987834117</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>134.5665975534142</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -4137,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>158.9570581017788</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1698.509627919561</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C2" t="n">
-        <v>1698.509627919561</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4339,7 +4339,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4348,34 +4348,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794326</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450755</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180641</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919561</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="Y2" t="n">
-        <v>1698.509627919561</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.09613355694</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275813</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614562</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609106</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635991</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686091</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064762</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080141</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986314</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068415</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.46467248647</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962573</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201688</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695168</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373023</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507439</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275696</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547495</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341962</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577008</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2342.011860380094</v>
+        <v>924.1535645674204</v>
       </c>
       <c r="C4" t="n">
-        <v>2173.075677452187</v>
+        <v>755.2173816395135</v>
       </c>
       <c r="D4" t="n">
-        <v>2022.959038039851</v>
+        <v>605.1007422271778</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.959038039851</v>
+        <v>457.1876486447846</v>
       </c>
       <c r="F4" t="n">
-        <v>1876.069090541941</v>
+        <v>310.2977011468743</v>
       </c>
       <c r="G4" t="n">
-        <v>1708.36625391666</v>
+        <v>142.5948645215932</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134518</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952863</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348675</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797171</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.65004939672</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102585</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022998</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456658</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609172</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.7753643667</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>3044.089480193526</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>2859.104278152467</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U4" t="n">
-        <v>2570.001411278111</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V4" t="n">
-        <v>2570.001411278111</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="W4" t="n">
-        <v>2570.001411278111</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="X4" t="n">
-        <v>2342.011860380094</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="Y4" t="n">
-        <v>2342.011860380094</v>
+        <v>1105.80202939766</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1986.901740067214</v>
+        <v>1517.887535471216</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993394</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3094.703799450719</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2763.640912107148</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2763.640912107148</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2763.640912107148</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y5" t="n">
-        <v>2373.501580131336</v>
+        <v>1904.487375535337</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>431.1278029579779</v>
+        <v>753.0765981364621</v>
       </c>
       <c r="C7" t="n">
-        <v>313.9544330261738</v>
+        <v>584.1404152085552</v>
       </c>
       <c r="D7" t="n">
-        <v>163.8377936138381</v>
+        <v>434.0237757962194</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>286.1106822138263</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>139.2207347159159</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242373</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V7" t="n">
-        <v>1169.327103036486</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W7" t="n">
-        <v>879.9099329995254</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="X7" t="n">
-        <v>651.920382101508</v>
+        <v>1155.517642110232</v>
       </c>
       <c r="Y7" t="n">
-        <v>431.1278029579779</v>
+        <v>934.7250629667018</v>
       </c>
     </row>
     <row r="8">
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1979.067756754391</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
         <v>1976.204921733553</v>
@@ -4807,7 +4807,7 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4819,7 +4819,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794325</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2755.806928794325</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="X8" t="n">
-        <v>2755.806928794325</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="Y8" t="n">
-        <v>2365.667596818513</v>
+        <v>2630.721789066532</v>
       </c>
     </row>
     <row r="9">
@@ -4874,16 +4874,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>663.8430895008161</v>
+        <v>697.9541770656748</v>
       </c>
       <c r="C10" t="n">
-        <v>608.0847133907091</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D10" t="n">
-        <v>457.9680739783734</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959803</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1872.48643018031</v>
       </c>
       <c r="V10" t="n">
-        <v>1134.908724368016</v>
+        <v>1617.801941974423</v>
       </c>
       <c r="W10" t="n">
-        <v>845.4915543310558</v>
+        <v>1328.384771937462</v>
       </c>
       <c r="X10" t="n">
-        <v>845.4915543310558</v>
+        <v>1100.395221039445</v>
       </c>
       <c r="Y10" t="n">
-        <v>845.4915543310558</v>
+        <v>879.6026418959145</v>
       </c>
     </row>
     <row r="11">
@@ -5035,40 +5035,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951537</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="14">
@@ -5275,25 +5275,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>432.9862109052757</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>286.0962634073653</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>118.9001641222453</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>118.9001641222453</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5469,19 +5469,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>2044.506784258106</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1789.822296052219</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5512,28 +5512,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>695.5020655703109</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C19" t="n">
-        <v>526.5658826424041</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>376.4492432300683</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>376.4492432300683</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>229.5592957321579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>229.5592957321579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5709,16 +5709,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="20">
@@ -5734,7 +5734,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5828,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>615.644930552589</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C22" t="n">
-        <v>615.644930552589</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D22" t="n">
-        <v>465.5282911402533</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E22" t="n">
-        <v>317.6151975578602</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5937,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W22" t="n">
-        <v>1246.075525424376</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X22" t="n">
-        <v>1018.085974526359</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y22" t="n">
-        <v>797.2933953828287</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="23">
@@ -5971,10 +5971,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5989,7 +5989,7 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3007.624207651098</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C25" t="n">
-        <v>2838.688024723192</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D25" t="n">
-        <v>2688.571385310856</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>2688.571385310856</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>2688.571385310856</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>2521.375286025736</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>2379.663454867934</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4471.231687421535</v>
+        <v>2041.469518613829</v>
       </c>
       <c r="U25" t="n">
-        <v>4182.156460765733</v>
+        <v>1752.394291958027</v>
       </c>
       <c r="V25" t="n">
-        <v>3927.471972559846</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W25" t="n">
-        <v>3638.054802522885</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X25" t="n">
-        <v>3410.065251624868</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y25" t="n">
-        <v>3189.272672481338</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6417,19 +6417,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.279732885522</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6457,34 +6457,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2804.652647788939</v>
+        <v>996.5276398439756</v>
       </c>
       <c r="C31" t="n">
-        <v>2635.716464861032</v>
+        <v>827.5914569160688</v>
       </c>
       <c r="D31" t="n">
-        <v>2485.599825448697</v>
+        <v>677.474817503733</v>
       </c>
       <c r="E31" t="n">
-        <v>2337.686731866303</v>
+        <v>529.5617239213399</v>
       </c>
       <c r="F31" t="n">
-        <v>2337.686731866303</v>
+        <v>382.6717764234295</v>
       </c>
       <c r="G31" t="n">
-        <v>2337.686731866303</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4670.716426881534</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4487.861592536438</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4268.26012755938</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>3979.184900903577</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3724.500412697687</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W31" t="n">
-        <v>3435.083242660727</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X31" t="n">
-        <v>3207.093691762709</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="Y31" t="n">
-        <v>2986.301112619179</v>
+        <v>1178.176104674215</v>
       </c>
     </row>
     <row r="32">
@@ -6694,7 +6694,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192599</v>
@@ -6703,19 +6703,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>560.7825789706076</v>
+        <v>718.5507239167111</v>
       </c>
       <c r="C34" t="n">
-        <v>391.8463960427007</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D34" t="n">
-        <v>241.729756630365</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797187</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6888,22 +6888,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1191.213173842395</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X34" t="n">
-        <v>963.2236229443774</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y34" t="n">
-        <v>742.4310438008473</v>
+        <v>900.1991887469509</v>
       </c>
     </row>
     <row r="35">
@@ -6925,31 +6925,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>408.925855915485</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7156,16 +7156,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2804.65264778894</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>2635.716464861033</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>2485.599825448698</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>2337.686731866304</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>2337.686731866304</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>4487.861592536436</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T40" t="n">
-        <v>4268.260127559377</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U40" t="n">
-        <v>3979.184900903575</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V40" t="n">
-        <v>3724.500412697688</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W40" t="n">
-        <v>3435.083242660728</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X40" t="n">
-        <v>3207.09369176271</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>2986.30111261918</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362687</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>801.6918836311989</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>641.1291986799072</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>491.0125592675714</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>983.3403484614387</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>45.99097492814204</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891651</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>56.43317025503488</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>226.4057028288546</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,16 +23898,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>5.909506488879686</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>46.45968844823091</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24138,13 +24138,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24177,19 +24177,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>92.12028678808278</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>100.7734165143927</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>39.70888054695225</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>72.11969353038609</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24849,13 +24849,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>19.8522888967897</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.45968844823376</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>46.45968844823099</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>202.6501519448735</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>145.6085800303782</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>46.45968844823039</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>8.289762996848992</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>898230.3070642164</v>
+        <v>898230.3070642162</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>898230.3070642164</v>
+        <v>898230.3070642162</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>898230.3070642164</v>
+        <v>898230.3070642162</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>898230.3070642161</v>
+        <v>898230.3070642164</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>898230.3070642162</v>
+        <v>898230.3070642164</v>
       </c>
     </row>
     <row r="15">
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
         <v>533677.1504117843</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="E2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="F2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="G2" t="n">
         <v>524645.289798504</v>
-      </c>
-      <c r="G2" t="n">
-        <v>524645.2897985041</v>
       </c>
       <c r="H2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="I2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
       <c r="J2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="K2" t="n">
         <v>524645.2897985041</v>
       </c>
       <c r="L2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
       <c r="M2" t="n">
         <v>524645.2897985039</v>
@@ -26355,7 +26355,7 @@
         <v>524645.2897985039</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314474</v>
+        <v>90354.06702314482</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314476</v>
+        <v>90354.0670231448</v>
       </c>
       <c r="D4" t="n">
         <v>90354.06702314477</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
         <v>11167.03225179351</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-993355.6029003467</v>
+        <v>-993355.6029003465</v>
       </c>
       <c r="C6" t="n">
-        <v>335389.1428272465</v>
+        <v>335389.1428272462</v>
       </c>
       <c r="D6" t="n">
-        <v>335389.1428272462</v>
+        <v>335389.1428272463</v>
       </c>
       <c r="E6" t="n">
-        <v>86943.26591544788</v>
+        <v>86595.88666109127</v>
       </c>
       <c r="F6" t="n">
-        <v>412355.7277228035</v>
+        <v>412008.3484684462</v>
       </c>
       <c r="G6" t="n">
-        <v>412355.7277228034</v>
+        <v>412008.3484684463</v>
       </c>
       <c r="H6" t="n">
-        <v>412355.7277228033</v>
+        <v>412008.3484684463</v>
       </c>
       <c r="I6" t="n">
-        <v>412355.7277228034</v>
+        <v>412008.3484684463</v>
       </c>
       <c r="J6" t="n">
-        <v>194824.5253255257</v>
+        <v>194477.1460711688</v>
       </c>
       <c r="K6" t="n">
-        <v>412355.7277228035</v>
+        <v>412008.3484684465</v>
       </c>
       <c r="L6" t="n">
-        <v>412355.7277228034</v>
+        <v>412008.3484684463</v>
       </c>
       <c r="M6" t="n">
-        <v>327300.6997872913</v>
+        <v>326953.3205329345</v>
       </c>
       <c r="N6" t="n">
-        <v>412355.7277228033</v>
+        <v>412008.3484684463</v>
       </c>
       <c r="O6" t="n">
-        <v>412355.7277228032</v>
+        <v>412008.3484684462</v>
       </c>
       <c r="P6" t="n">
-        <v>412355.7277228032</v>
+        <v>412008.3484684463</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>274.9183408758524</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>67.83092071305862</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27545,7 +27545,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>69.43309430580507</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,10 +27587,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>36.41359925552081</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>82.39369247777694</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>226.3201401616537</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>51.24518486614176</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>94.04427615813303</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>100.0350347748393</v>
       </c>
       <c r="C8" t="n">
-        <v>362.4386851003777</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>112.046028749622</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>231.9518014765115</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29729,7 +29729,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>-1.536062028719379e-12</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>416.4300581532619</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,31 +32074,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>467.1465236515248</v>
       </c>
       <c r="M15" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32311,31 +32311,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>616.5397119226058</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32493,7 +32493,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32563,13 +32563,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33909,13 +33909,13 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33970,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34140,7 +34140,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34207,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34225,10 +34225,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34368,7 +34368,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34444,31 +34444,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>274.2960242312436</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>328.5921438716506</v>
       </c>
       <c r="M15" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>477.9853321427316</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36138,10 +36138,10 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36211,13 +36211,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37557,13 +37557,13 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37873,10 +37873,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1639013.081088508</v>
+        <v>1640773.611391293</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.105228318</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>75.45713216103701</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>318.407017942995</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -822,19 +822,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>6.380068175847409</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>75.32192060851571</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>282.8791992932306</v>
+        <v>282.8791992932302</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>71.98153210089519</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>61.42978662487851</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>282.6988068886412</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>335.8756750054769</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1195,10 +1195,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>54.26003672910142</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>121.2558461704858</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1542,10 +1542,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>107.4021082756242</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1767,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>24.83266606353065</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>111.551214499872</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>205.6779548755971</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2247,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>80.33989744909005</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>194.0641876011614</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>154.0370966050008</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>56.04917322725558</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>106.2078024559165</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,16 +2955,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>145.6718493954791</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,16 +3006,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3198,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>83.87284639171752</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576159</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>108.9065924712588</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189108</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>223.829035290595</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2047.583838282732</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4348,34 +4348,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794324</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2755.806928794324</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2755.806928794324</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2434.183678346854</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4391,70 +4391,70 @@
         <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
         <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>936.5735814686076</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>827.064395508013</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>920.7416649986303</v>
       </c>
       <c r="K3" t="n">
         <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
         <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
         <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>924.1535645674204</v>
+        <v>241.8928126690271</v>
       </c>
       <c r="C4" t="n">
-        <v>755.2173816395135</v>
+        <v>72.9566297411202</v>
       </c>
       <c r="D4" t="n">
-        <v>605.1007422271778</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>457.1876486447846</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>310.2977011468743</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>142.5948645215932</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415547</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U4" t="n">
-        <v>1326.59460854119</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V4" t="n">
-        <v>1326.59460854119</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W4" t="n">
-        <v>1326.59460854119</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="X4" t="n">
-        <v>1326.59460854119</v>
+        <v>644.3338566427969</v>
       </c>
       <c r="Y4" t="n">
-        <v>1105.80202939766</v>
+        <v>423.5412774992668</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1517.887535471216</v>
+        <v>1517.887535471215</v>
       </c>
       <c r="C5" t="n">
         <v>1232.150970528558</v>
@@ -4567,16 +4567,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4603,7 +4603,7 @@
         <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
         <v>2277.953133796417</v>
@@ -4640,19 +4640,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>753.0765981364621</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C7" t="n">
-        <v>584.1404152085552</v>
+        <v>838.5106002518377</v>
       </c>
       <c r="D7" t="n">
-        <v>434.0237757962194</v>
+        <v>688.3939608395019</v>
       </c>
       <c r="E7" t="n">
-        <v>286.1106822138263</v>
+        <v>540.4808672571088</v>
       </c>
       <c r="F7" t="n">
-        <v>139.2207347159159</v>
+        <v>393.5909197591984</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>225.8880831339174</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.191681214136</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V7" t="n">
-        <v>1383.507193008249</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="W7" t="n">
-        <v>1383.507193008249</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X7" t="n">
-        <v>1155.517642110232</v>
+        <v>1409.887827153514</v>
       </c>
       <c r="Y7" t="n">
-        <v>934.7250629667018</v>
+        <v>1189.095248009984</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1546.221676928586</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1160.433424330342</v>
       </c>
       <c r="F8" t="n">
         <v>821.1650657389509</v>
@@ -4801,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W8" t="n">
-        <v>2630.721789066532</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X8" t="n">
-        <v>2630.721789066532</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y8" t="n">
-        <v>2630.721789066532</v>
+        <v>1904.487375535336</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>697.9541770656748</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>529.0179941377679</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1872.48643018031</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1617.801941974423</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>1328.384771937462</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>1100.395221039445</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>879.6026418959145</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5035,40 +5035,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245706</v>
+        <v>484.8243144841094</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>802.9288273958734</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>369.499740389278</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>202.303641104158</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304621</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267661</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369643</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.5772922261132</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="14">
@@ -5272,40 +5272,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>454.6048385560544</v>
       </c>
       <c r="L15" t="n">
-        <v>904.4616873845483</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="M15" t="n">
-        <v>1501.8401750111</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
         <v>2129.438138565707</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>580.8993044876688</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>580.8993044876688</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>432.9862109052757</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>286.0962634073653</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>118.9001641222453</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>118.9001641222453</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2334.285089135946</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2334.285089135946</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>2045.209862480144</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5506,19 +5506,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5591,13 +5591,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>560.7825789706076</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1480.630343879355</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1191.213173842395</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>963.2236229443774</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>742.4310438008473</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5749,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,13 +5828,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>789.7592298206043</v>
+        <v>802.9288273958739</v>
       </c>
       <c r="C22" t="n">
-        <v>620.8230468926974</v>
+        <v>633.992644467967</v>
       </c>
       <c r="D22" t="n">
-        <v>470.7064074803617</v>
+        <v>483.8760050556313</v>
       </c>
       <c r="E22" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1964.291482935239</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V22" t="n">
-        <v>1709.606994729352</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W22" t="n">
-        <v>1420.189824692392</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X22" t="n">
-        <v>1192.200273794374</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y22" t="n">
-        <v>971.4076946508441</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
     <row r="23">
@@ -5980,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>577.8620388433919</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2041.469518613829</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1752.394291958027</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1497.70980375214</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1208.292633715179</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>980.3030828171618</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>759.5105036736317</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6220,40 +6220,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>705.9324428257312</v>
+        <v>982.1492342949679</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>813.213051367061</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>663.0964119547252</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>515.1833183723321</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>368.2933708744217</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>201.0972715893017</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>982.1492342949679</v>
       </c>
     </row>
     <row r="29">
@@ -6457,16 +6457,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,22 +6475,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>996.5276398439756</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>827.5914569160688</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>677.474817503733</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>529.5617239213399</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>382.6717764234295</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1688.385853854706</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1398.968683817745</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1398.968683817745</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>1178.176104674215</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6694,37 +6694,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>718.5507239167111</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1348.981318788498</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1120.991767890481</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>900.1991887469509</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7156,52 +7156,52 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7247,7 +7247,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
         <v>95.58405025273903</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2336.956424518383</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2117.354959541324</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1828.279732885522</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,31 +7399,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>45.99097492814204</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>32.89260457059964</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>56.43317025503488</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>69.47507150177263</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>46.45968844823091</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>66.09406519747913</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>92.12028678808278</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>63.36835372228751</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>123.7828069546817</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>34.08691039030738</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856137</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>19.8522888967897</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,16 +24894,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>202.6501519448735</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>72.11969353038577</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>138.4949402405078</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>62.3554390986491</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>898230.3070642162</v>
+        <v>898230.3070642164</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>898230.3070642162</v>
+        <v>898230.3070642164</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>898230.3070642162</v>
+        <v>898230.3070642164</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>898230.3070642164</v>
+        <v>898230.3070642165</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>898230.3070642164</v>
+        <v>898230.3070642162</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>898230.3070642164</v>
+        <v>898230.3070642162</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>898230.3070642164</v>
+        <v>898230.3070642162</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>898230.3070642164</v>
+        <v>898230.3070642162</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>533677.1504117843</v>
+      </c>
+      <c r="C2" t="n">
         <v>533677.1504117842</v>
-      </c>
-      <c r="C2" t="n">
-        <v>533677.1504117843</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117844</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="F2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="G2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="H2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="I2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="J2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="K2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="L2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="M2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="N2" t="n">
-        <v>524645.289798504</v>
-      </c>
       <c r="O2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985037</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314482</v>
+        <v>90354.06702314485</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.0670231448</v>
+        <v>90354.06702314483</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314477</v>
+        <v>90354.06702314486</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="G4" t="n">
         <v>11167.03225179351</v>
@@ -26441,13 +26441,13 @@
         <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179346</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179347</v>
       </c>
       <c r="M4" t="n">
         <v>11167.03225179351</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-993355.6029003465</v>
+        <v>-993355.6029003462</v>
       </c>
       <c r="C6" t="n">
-        <v>335389.1428272462</v>
+        <v>335389.1428272461</v>
       </c>
       <c r="D6" t="n">
-        <v>335389.1428272463</v>
+        <v>335389.142827246</v>
       </c>
       <c r="E6" t="n">
-        <v>86595.88666109127</v>
+        <v>86908.52799001218</v>
       </c>
       <c r="F6" t="n">
-        <v>412008.3484684462</v>
+        <v>412320.9897973675</v>
       </c>
       <c r="G6" t="n">
-        <v>412008.3484684463</v>
+        <v>412320.9897973675</v>
       </c>
       <c r="H6" t="n">
-        <v>412008.3484684463</v>
+        <v>412320.9897973674</v>
       </c>
       <c r="I6" t="n">
-        <v>412008.3484684463</v>
+        <v>412320.9897973675</v>
       </c>
       <c r="J6" t="n">
-        <v>194477.1460711688</v>
+        <v>194789.78740009</v>
       </c>
       <c r="K6" t="n">
-        <v>412008.3484684465</v>
+        <v>412320.9897973675</v>
       </c>
       <c r="L6" t="n">
-        <v>412008.3484684463</v>
+        <v>412320.9897973675</v>
       </c>
       <c r="M6" t="n">
-        <v>326953.3205329345</v>
+        <v>327265.9618618557</v>
       </c>
       <c r="N6" t="n">
-        <v>412008.3484684463</v>
+        <v>412320.9897973677</v>
       </c>
       <c r="O6" t="n">
-        <v>412008.3484684462</v>
+        <v>412320.9897973674</v>
       </c>
       <c r="P6" t="n">
-        <v>412008.3484684463</v>
+        <v>412320.9897973674</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26813,16 +26813,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>307.2767095024436</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>67.83092071305862</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27542,22 +27542,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>142.2354048423649</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>69.43309430580507</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27596,13 +27596,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>82.39369247777694</v>
+        <v>82.39369247777739</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>94.04427615813303</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>83.32522828944226</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,13 +27830,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>100.0350347748393</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>71.00037073623457</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27915,10 +27915,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>231.9518014765115</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29453,7 +29453,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -29565,7 +29565,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>173.8200325543357</v>
+        <v>381.6404378718164</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,22 +32080,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>349.3304751113899</v>
       </c>
       <c r="L15" t="n">
-        <v>467.1465236515248</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175652</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>35.97859357997668</v>
+        <v>243.7989988974574</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>211.4890361370309</v>
       </c>
       <c r="L15" t="n">
-        <v>328.5921438716506</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902925</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
